--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Studium\Softwareprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgolc\Documents\TEAMUNIQUE\Projekt-Bibo-MarkusW95-patch-3\Projekt-Bibo-MarkusW95-patch-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B640707-4B71-4B64-B0B1-649B42180124}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34AFCD-A0FE-4F39-AE7E-22D4B858C0EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{E4186542-6DEA-4CBB-AC98-2E97943477EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12953" activeTab="1" xr2:uid="{E4186542-6DEA-4CBB-AC98-2E97943477EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Markus" sheetId="1" r:id="rId1"/>
+    <sheet name="Sebastian" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>int</t>
   </si>
@@ -96,6 +97,36 @@
   </si>
   <si>
     <t>beginnend bei 1000</t>
+  </si>
+  <si>
+    <t>Bauteile</t>
+  </si>
+  <si>
+    <t>Roboterkomponenten</t>
+  </si>
+  <si>
+    <t>Roboter</t>
+  </si>
+  <si>
+    <t>RoboterID</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>Produktionskosten</t>
+  </si>
+  <si>
+    <t>TeileNr</t>
+  </si>
+  <si>
+    <t>varchar[?]</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -479,21 +510,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F81AA6-5C7C-440A-A2D4-5698364E7091}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -510,13 +541,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -533,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -544,12 +575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -563,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -574,12 +605,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -599,7 +630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -610,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -618,7 +649,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -626,7 +657,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -634,7 +665,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -642,7 +673,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -650,7 +681,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -658,7 +689,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -666,7 +697,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -674,7 +705,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -682,7 +713,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -690,7 +721,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -698,7 +729,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -710,4 +741,220 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9768B04-7F66-44AE-B6F1-CB75DB93B2F4}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgolc\Documents\TEAMUNIQUE\Projekt-Bibo-MarkusW95-patch-3\Projekt-Bibo-MarkusW95-patch-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\Studium\Projekt Bieb.O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34AFCD-A0FE-4F39-AE7E-22D4B858C0EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12953" activeTab="1" xr2:uid="{E4186542-6DEA-4CBB-AC98-2E97943477EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Markus" sheetId="1" r:id="rId1"/>
     <sheet name="Sebastian" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>int</t>
   </si>
@@ -127,12 +126,99 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Ansprechpartner</t>
+  </si>
+  <si>
+    <t>APartnerID</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Lieferanten</t>
+  </si>
+  <si>
+    <t>auto_increm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>LieferantID</t>
+  </si>
+  <si>
+    <t>LieferantName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TelFest</t>
+  </si>
+  <si>
+    <t>Länge?</t>
+  </si>
+  <si>
+    <t>varchar(80)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>auto_increm?</t>
+  </si>
+  <si>
+    <t>Wie sieht ID aus?</t>
+  </si>
+  <si>
+    <t>Adressen</t>
+  </si>
+  <si>
+    <t>AdrID</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Straße</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>Wie wird das Land angegeben? Kürzel?</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>Check ID?</t>
+  </si>
+  <si>
+    <t>Stehen nur bestimmte Länder zur Auswahl, wenn ja welche?</t>
+  </si>
+  <si>
+    <t>char(5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,24 +593,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F81AA6-5C7C-440A-A2D4-5698364E7091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -541,13 +627,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -564,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -575,12 +661,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -594,7 +680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -605,12 +691,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -630,7 +716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -641,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -649,7 +735,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -657,7 +743,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -665,7 +751,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -673,7 +759,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -681,7 +767,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -689,7 +775,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -697,7 +783,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -705,7 +791,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -713,7 +799,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -721,7 +807,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -729,7 +815,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -744,19 +830,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9768B04-7F66-44AE-B6F1-CB75DB93B2F4}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -774,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -782,7 +868,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -792,7 +878,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -810,7 +896,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -824,7 +910,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -832,7 +918,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -840,7 +926,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -850,7 +936,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,7 +950,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -872,7 +958,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -880,7 +966,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -888,7 +974,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -898,7 +984,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -918,7 +1004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -932,7 +1018,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -943,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -954,7 +1040,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Studium\Softwareprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D80DBF8-90AA-471B-A39A-FBB70894C80F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F6AA0-B4D2-4C53-B1A0-EA58E1D73CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
   <si>
     <t>int</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>11.00</t>
+  </si>
+  <si>
+    <t>Fill-Phil (Aufstocker)</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,7 +2151,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2607,13 +2610,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="49">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H15" s="49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15" s="49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -2631,13 +2634,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="49">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H16" s="49">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I16" s="49">
         <v>9</v>
@@ -2658,13 +2661,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="49">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H17" s="49">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I17" s="49">
         <v>9</v>
@@ -2683,18 +2686,6 @@
       </c>
       <c r="D18" s="45">
         <v>3</v>
-      </c>
-      <c r="F18" s="49">
-        <v>3</v>
-      </c>
-      <c r="G18" s="49">
-        <v>13</v>
-      </c>
-      <c r="H18" s="49">
-        <v>13</v>
-      </c>
-      <c r="I18" s="49">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -2896,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>154</v>
@@ -4482,7 +4473,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Studium\Softwareprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F6AA0-B4D2-4C53-B1A0-EA58E1D73CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58409415-C311-4F22-BCCA-890FF82CAB0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RelModell" sheetId="1" r:id="rId1"/>
     <sheet name="Testdaten" sheetId="18" r:id="rId2"/>
-    <sheet name=" von Bieb_O" sheetId="2" r:id="rId3"/>
-    <sheet name="Tabellen" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="183">
   <si>
     <t>int</t>
   </si>
@@ -60,13 +58,7 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>Stückzahl</t>
-  </si>
-  <si>
     <t>tinyint</t>
-  </si>
-  <si>
-    <t>Einkäufe</t>
   </si>
   <si>
     <t>EID</t>
@@ -101,9 +93,6 @@
     <t>Roboter</t>
   </si>
   <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
     <t>Ansprechpartner</t>
   </si>
   <si>
@@ -206,36 +195,12 @@
     <t>Nummer und eventueller Buchstabenzusatz</t>
   </si>
   <si>
-    <t>Einkaufspreis</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Roboterbezeichnung</t>
-  </si>
-  <si>
-    <t>bitte mdst 5 Roboter ausdenken</t>
-  </si>
-  <si>
-    <t>verwendete Bauteile mit Stückzahl</t>
-  </si>
-  <si>
-    <t>Produktionskosten pro Roboter</t>
-  </si>
-  <si>
-    <t>bitte so viele Bauteile ausdenken, dass sie für 5 Roboter reichen, wenn möglich mdst 10 Bauteile</t>
-  </si>
-  <si>
     <t>LID</t>
   </si>
   <si>
     <t>RID</t>
   </si>
   <si>
-    <t>MatKosten</t>
-  </si>
-  <si>
     <t>ProdKosten</t>
   </si>
   <si>
@@ -245,54 +210,12 @@
     <t>LName</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Lieferant</t>
-  </si>
-  <si>
     <t>ArdID</t>
   </si>
   <si>
-    <t xml:space="preserve">Land </t>
-  </si>
-  <si>
-    <t>vllt so ca 7 Lieferanten</t>
-  </si>
-  <si>
-    <t>&lt;-- Nummer bitte den Bauteilen zuordnen, 1 Lieferant kann nichts liefern</t>
-  </si>
-  <si>
     <t>Ort</t>
   </si>
   <si>
-    <t>Bein links</t>
-  </si>
-  <si>
-    <t>Bein rechts</t>
-  </si>
-  <si>
-    <t>Körper</t>
-  </si>
-  <si>
-    <t>Arm links</t>
-  </si>
-  <si>
-    <t>Arm rechts</t>
-  </si>
-  <si>
-    <t>Kopf</t>
-  </si>
-  <si>
-    <t>Tacker</t>
-  </si>
-  <si>
-    <t>Locher</t>
-  </si>
-  <si>
-    <t>Klebebandabroller</t>
-  </si>
-  <si>
     <t>RBezeichnung</t>
   </si>
   <si>
@@ -368,30 +291,15 @@
     <t>Aktenschwärzer</t>
   </si>
   <si>
-    <t>Reifen 4, Sensor 1, Motor 1, Display 1,</t>
-  </si>
-  <si>
-    <t>arm 2,Netzteil 1, Prozessor 1, Gelenk 2,Lackierung 1</t>
-  </si>
-  <si>
-    <t>Fill-Phil (aufstocker)</t>
-  </si>
-  <si>
     <t>Sortierer</t>
   </si>
   <si>
     <t>Büro-Bote</t>
   </si>
   <si>
-    <t>Arm 1,Netzteil 1, Prozessor 1, Gelenk 2,Lackierung 1</t>
-  </si>
-  <si>
     <t>Disziplinierer</t>
   </si>
   <si>
-    <t>Netzteil 1, Prozessor 1, Gelenk 2,Lackierung 1</t>
-  </si>
-  <si>
     <t>Rudis Reifen</t>
   </si>
   <si>
@@ -401,9 +309,6 @@
     <t>+49 139 1234 13</t>
   </si>
   <si>
-    <t>liefert nichts</t>
-  </si>
-  <si>
     <t>Mecha Corp</t>
   </si>
   <si>
@@ -503,9 +408,6 @@
     <t>Greifarm</t>
   </si>
   <si>
-    <t>Verbindungsstück 8, Farbpatrone 1</t>
-  </si>
-  <si>
     <t>Farbpatrone</t>
   </si>
   <si>
@@ -513,33 +415,6 @@
   </si>
   <si>
     <t>Objektbehälter</t>
-  </si>
-  <si>
-    <t>Reifen 3, Sensor 1, Motor 1, Display 1,</t>
-  </si>
-  <si>
-    <t>Netzteil 1, Prozessor 1,Lackierung 1</t>
-  </si>
-  <si>
-    <t>Verbindungsstück 5, Gelenk 3, Greifarm 1</t>
-  </si>
-  <si>
-    <t>arm 1,Netzteil 1, Prozessor 1, Gelenk 1,Lackierung 1</t>
-  </si>
-  <si>
-    <t>Verbindungsstück 7, Gelenk 3, Magazin 1</t>
-  </si>
-  <si>
-    <t>Reifen 6, Sensor 3, Motor 2, Display 1,</t>
-  </si>
-  <si>
-    <t>Verbindungsstück 9, Gelenk 3, Lautsprecher, Objektbehälter1</t>
-  </si>
-  <si>
-    <t>Reifen 4, Sensor 2, Motor 1, Display 2,</t>
-  </si>
-  <si>
-    <t>Verbindungsstück 5, Gelenk 3,Lautsprecher2</t>
   </si>
   <si>
     <t>35.00</t>
@@ -712,7 +587,7 @@
     <numFmt numFmtId="164" formatCode="[$-407]General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,39 +663,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -843,24 +699,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -875,7 +713,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,43 +727,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -938,10 +746,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -982,61 +787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Gerader Verbinder 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBEA07B-88D6-412C-ABB6-205C7E7A42BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5539740" y="868680"/>
-          <a:ext cx="3238500" cy="944880"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,19 +1104,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1392,12 +1142,12 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1406,32 +1156,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>95</v>
+      <c r="C7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,19 +1195,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1476,16 +1226,16 @@
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>93</v>
+      <c r="E13" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>0</v>
@@ -1493,21 +1243,21 @@
       <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>99</v>
+      <c r="E14" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1522,12 +1272,12 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1540,7 +1290,7 @@
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1550,7 +1300,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -1564,29 +1314,29 @@
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>56</v>
+      <c r="F25" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>7</v>
@@ -1613,7 +1363,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1623,7 +1373,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -1634,43 +1384,43 @@
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="18" t="s">
+    <row r="32" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>92</v>
+      <c r="C33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1680,7 +1430,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -1695,28 +1445,28 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
@@ -1748,7 +1498,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1758,10 +1508,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -1773,33 +1523,33 @@
         <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
@@ -1810,10 +1560,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
@@ -1840,7 +1590,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1850,7 +1600,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
@@ -1865,15 +1615,15 @@
         <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -1882,40 +1632,40 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="18" t="s">
+    <row r="54" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>94</v>
+      <c r="C54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
@@ -1926,10 +1676,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
@@ -1940,7 +1690,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1950,7 +1700,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
@@ -1965,49 +1715,49 @@
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>1</v>
@@ -2015,10 +1765,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
@@ -2029,10 +1779,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -2040,17 +1790,17 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2065,59 +1815,59 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>98</v>
+      <c r="C72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>96</v>
+      <c r="C75" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -2126,12 +1876,12 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -2150,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC11454-B6AD-4284-9AEE-866D7ED408B3}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2166,85 +1916,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
-      <c r="K1" s="12" t="s">
-        <v>144</v>
+      <c r="K1" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
-        <v>13</v>
+      <c r="I2" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="44">
+      <c r="B3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="20">
         <v>9</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="20">
         <v>3</v>
       </c>
-      <c r="F3" s="50">
-        <v>1</v>
-      </c>
-      <c r="G3" s="50">
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
         <v>135</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="26">
         <v>12</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="27">
         <v>43153</v>
       </c>
     </row>
@@ -2252,32 +2002,32 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="44">
+      <c r="B4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="20">
         <v>6</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="26">
         <v>6</v>
       </c>
-      <c r="F4" s="49">
-        <v>1</v>
-      </c>
-      <c r="G4" s="49">
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
         <v>56</v>
       </c>
-      <c r="H4" s="49">
-        <v>1</v>
-      </c>
-      <c r="I4" s="49">
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
         <v>2</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="8">
         <v>2</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="27">
         <v>43190</v>
       </c>
     </row>
@@ -2285,32 +2035,32 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="44">
-        <v>2</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="B5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
+      <c r="D5" s="26">
         <v>7</v>
       </c>
-      <c r="F5" s="49">
-        <v>2</v>
-      </c>
-      <c r="G5" s="49">
+      <c r="F5" s="25">
+        <v>2</v>
+      </c>
+      <c r="G5" s="25">
         <v>13</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="25">
         <v>6</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="25">
         <v>2</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="8">
         <v>3</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="27">
         <v>43202</v>
       </c>
     </row>
@@ -2318,32 +2068,32 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="B6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="26">
         <v>6</v>
       </c>
-      <c r="F6" s="49">
-        <v>1</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
         <v>64</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="25">
         <v>9</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="25">
         <v>3</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="8">
         <v>4</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="27">
         <v>43224</v>
       </c>
     </row>
@@ -2351,131 +2101,131 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="B7" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="20">
         <v>8</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="20">
         <v>7</v>
       </c>
-      <c r="F7" s="49">
-        <v>2</v>
-      </c>
-      <c r="G7" s="49">
+      <c r="F7" s="25">
+        <v>2</v>
+      </c>
+      <c r="G7" s="25">
         <v>10</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="25">
         <v>7</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="25">
         <v>3</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="8">
         <v>5</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="27">
         <v>43235</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="21">
         <v>15</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="49">
-        <v>1</v>
-      </c>
-      <c r="G8" s="49">
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
         <v>163</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="25">
         <v>3</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="25">
         <v>4</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="9">
         <v>6</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="27">
         <v>43235</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="B9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="21">
         <v>12</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="20">
         <v>4</v>
       </c>
-      <c r="F9" s="49">
-        <v>2</v>
-      </c>
-      <c r="G9" s="49">
+      <c r="F9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25">
         <v>47</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="25">
         <v>5</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="25">
         <v>4</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="27">
         <v>43251</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="B10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="21">
         <v>14</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="20">
         <v>7</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="25">
         <v>3</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="25">
         <v>15</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="25">
         <v>8</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="25">
         <v>4</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="9">
         <v>8</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="27">
         <v>43253</v>
       </c>
     </row>
@@ -2483,32 +2233,32 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="44">
+      <c r="B11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="20">
         <v>10</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="20">
         <v>4</v>
       </c>
-      <c r="F11" s="49">
-        <v>1</v>
-      </c>
-      <c r="G11" s="49">
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
         <v>58</v>
       </c>
-      <c r="H11" s="49">
-        <v>2</v>
-      </c>
-      <c r="I11" s="49">
+      <c r="H11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25">
         <v>5</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="9">
         <v>9</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="27">
         <v>43254</v>
       </c>
     </row>
@@ -2516,25 +2266,25 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="44">
+      <c r="B12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="20">
         <v>7</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="20">
         <v>6</v>
       </c>
-      <c r="F12" s="49">
-        <v>2</v>
-      </c>
-      <c r="G12" s="49">
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
         <v>23</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="25">
         <v>10</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="25">
         <v>5</v>
       </c>
       <c r="J12" s="6"/>
@@ -2543,133 +2293,133 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="44">
+      <c r="B13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="20">
         <v>4</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="26">
         <v>6</v>
       </c>
-      <c r="F13" s="50">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50">
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26">
         <v>100</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="26">
         <v>12</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="25">
         <v>6</v>
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1</v>
-      </c>
-      <c r="D14" s="50">
-        <v>1</v>
-      </c>
-      <c r="F14" s="49">
-        <v>1</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="B14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
         <v>110</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="25">
         <v>14</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="25">
         <v>7</v>
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="45">
+      <c r="B15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="21">
         <v>11</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="20">
         <v>6</v>
       </c>
-      <c r="F15" s="49">
-        <v>1</v>
-      </c>
-      <c r="G15" s="49">
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
         <v>45</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="25">
         <v>11</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="25">
         <v>9</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="44">
+      <c r="B16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="20">
         <v>5</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="26">
         <v>5</v>
       </c>
-      <c r="F16" s="49">
-        <v>2</v>
-      </c>
-      <c r="G16" s="49">
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25">
         <v>50</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="25">
         <v>4</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="25">
         <v>9</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="45">
+      <c r="B17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="21">
         <v>13</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="20">
         <v>7</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="25">
         <v>3</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="25">
         <v>13</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="25">
         <v>13</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="25">
         <v>9</v>
       </c>
       <c r="J17" s="6"/>
@@ -2678,76 +2428,76 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="45">
-        <v>2</v>
-      </c>
-      <c r="D18" s="45">
+      <c r="B18" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="45">
-        <v>2</v>
-      </c>
-      <c r="D19" s="45">
+      <c r="B19" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21">
         <v>6</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="45">
+      <c r="B20" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="21">
         <v>13</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="21">
         <v>7</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="45">
+        <v>179</v>
+      </c>
+      <c r="C21" s="21">
         <v>15</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="21">
         <v>7</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="C22" s="8">
         <v>4</v>
@@ -2755,114 +2505,114 @@
       <c r="D22" s="8">
         <v>6</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="45">
+        <v>181</v>
+      </c>
+      <c r="C23" s="21">
         <v>12</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="21">
         <v>4</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="C24" s="8">
         <v>15</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="21">
         <v>7</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>20</v>
+      <c r="A26" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="E26" s="12" t="s">
-        <v>22</v>
+      <c r="E26" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="J26" s="12" t="s">
-        <v>21</v>
+      <c r="J26" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="I27" s="17"/>
       <c r="J27" s="8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="44">
-        <v>1</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>212</v>
+      <c r="A28" s="20">
+        <v>1</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="E28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I28" s="39"/>
+      <c r="F28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="17"/>
       <c r="J28" s="8">
         <v>4</v>
       </c>
@@ -2874,25 +2624,25 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="44">
-        <v>2</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>211</v>
+      <c r="A29" s="20">
+        <v>2</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="E29" s="8">
         <v>2</v>
       </c>
-      <c r="F29" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="43"/>
+      <c r="F29" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="19"/>
       <c r="J29" s="8">
         <v>1</v>
       </c>
@@ -2904,25 +2654,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="44">
+      <c r="A30" s="20">
         <v>3</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>210</v>
+      <c r="B30" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="43"/>
+      <c r="F30" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="19"/>
       <c r="J30" s="8">
         <v>1</v>
       </c>
@@ -2934,25 +2684,25 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="44">
+      <c r="A31" s="20">
         <v>4</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>209</v>
+      <c r="B31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="E31" s="8">
         <v>4</v>
       </c>
-      <c r="F31" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="39"/>
+      <c r="F31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="17"/>
       <c r="J31" s="8">
         <v>1</v>
       </c>
@@ -2964,25 +2714,25 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="44">
+      <c r="A32" s="20">
         <v>5</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>213</v>
+      <c r="B32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="E32" s="8">
         <v>5</v>
       </c>
-      <c r="F32" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="39"/>
+      <c r="F32" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="17"/>
       <c r="J32" s="8">
         <v>2</v>
       </c>
@@ -2994,16 +2744,16 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="44">
+      <c r="A33" s="20">
         <v>6</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="43"/>
+      <c r="B33" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="19"/>
       <c r="J33" s="8">
         <v>1</v>
       </c>
@@ -3015,16 +2765,16 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="44">
+      <c r="A34" s="20">
         <v>7</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="43"/>
+      <c r="B34" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="19"/>
       <c r="J34" s="8">
         <v>1</v>
       </c>
@@ -3036,16 +2786,16 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="44">
+      <c r="A35" s="20">
         <v>8</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" s="39"/>
+      <c r="B35" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="17"/>
       <c r="J35" s="8">
         <v>2</v>
       </c>
@@ -3057,16 +2807,16 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="44">
+      <c r="A36" s="20">
         <v>9</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="43"/>
+      <c r="B36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="19"/>
       <c r="J36" s="8">
         <v>1</v>
       </c>
@@ -3078,16 +2828,16 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="44">
+      <c r="A37" s="20">
         <v>10</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="43"/>
+      <c r="B37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="19"/>
       <c r="J37" s="8">
         <v>8</v>
       </c>
@@ -3099,16 +2849,16 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="A38" s="22">
         <v>11</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="I38" s="39"/>
+      <c r="B38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="17"/>
       <c r="J38" s="8">
         <v>1</v>
       </c>
@@ -3120,17 +2870,17 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="45">
+      <c r="A39" s="21">
         <v>12</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="I39" s="39"/>
+      <c r="B39" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="8">
         <v>4</v>
       </c>
@@ -3142,17 +2892,17 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="45">
+      <c r="A40" s="21">
         <v>13</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="I40" s="43"/>
+      <c r="B40" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="8">
         <v>1</v>
       </c>
@@ -3164,17 +2914,17 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="45">
+      <c r="A41" s="21">
         <v>14</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="I41" s="43"/>
+      <c r="B41" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="8">
         <v>1</v>
       </c>
@@ -3186,17 +2936,17 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+      <c r="A42" s="21">
         <v>15</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="I42" s="39"/>
+      <c r="B42" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="8">
         <v>1</v>
       </c>
@@ -3208,7 +2958,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I43" s="39"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="8">
         <v>1</v>
       </c>
@@ -3220,7 +2970,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I44" s="39"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="8">
         <v>1</v>
       </c>
@@ -3232,7 +2982,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I45" s="39"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="8">
         <v>1</v>
       </c>
@@ -3244,8 +2994,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>29</v>
+      <c r="A46" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3264,24 +3014,24 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="G47" s="17"/>
       <c r="J47" s="8">
         <v>1</v>
       </c>
@@ -3293,11 +3043,11 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="50">
-        <v>1</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>120</v>
+      <c r="A48" s="26">
+        <v>1</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C48" s="8">
         <v>2</v>
@@ -3305,13 +3055,13 @@
       <c r="D48" s="8">
         <v>4</v>
       </c>
-      <c r="E48" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="43"/>
+      <c r="E48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="19"/>
       <c r="J48" s="8">
         <v>7</v>
       </c>
@@ -3323,11 +3073,11 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="50">
-        <v>2</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>124</v>
+      <c r="A49" s="26">
+        <v>2</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -3335,13 +3085,13 @@
       <c r="D49" s="8">
         <v>3</v>
       </c>
-      <c r="E49" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="43"/>
+      <c r="E49" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="19"/>
       <c r="J49" s="8">
         <v>1</v>
       </c>
@@ -3353,11 +3103,11 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="50">
+      <c r="A50" s="26">
         <v>3</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>127</v>
+      <c r="B50" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="C50" s="8">
         <v>3</v>
@@ -3365,13 +3115,13 @@
       <c r="D50" s="8">
         <v>1</v>
       </c>
-      <c r="E50" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="39"/>
+      <c r="E50" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="17"/>
       <c r="J50" s="8">
         <v>3</v>
       </c>
@@ -3383,11 +3133,11 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="50">
+      <c r="A51" s="26">
         <v>4</v>
       </c>
-      <c r="B51" s="45" t="s">
-        <v>130</v>
+      <c r="B51" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C51" s="8">
         <v>1</v>
@@ -3395,13 +3145,13 @@
       <c r="D51" s="8">
         <v>5</v>
       </c>
-      <c r="E51" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="39"/>
+      <c r="E51" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="17"/>
       <c r="J51" s="8">
         <v>1</v>
       </c>
@@ -3413,11 +3163,11 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="50">
+      <c r="A52" s="26">
         <v>5</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>133</v>
+      <c r="B52" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="C52" s="8">
         <v>8</v>
@@ -3425,14 +3175,14 @@
       <c r="D52" s="8">
         <v>2</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="E52" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
       <c r="J52" s="8">
         <v>1</v>
       </c>
@@ -3444,11 +3194,11 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="50">
+      <c r="A53" s="26">
         <v>6</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>136</v>
+      <c r="B53" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C53" s="8">
         <v>5</v>
@@ -3456,14 +3206,14 @@
       <c r="D53" s="8">
         <v>6</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="43"/>
+      <c r="E53" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="19"/>
       <c r="J53" s="8">
         <v>1</v>
       </c>
@@ -3475,11 +3225,11 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="45">
+      <c r="A54" s="21">
         <v>7</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>139</v>
+      <c r="B54" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C54" s="8">
         <v>6</v>
@@ -3487,14 +3237,14 @@
       <c r="D54" s="8">
         <v>7</v>
       </c>
-      <c r="E54" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="43"/>
+      <c r="E54" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="19"/>
       <c r="J54" s="8">
         <v>1</v>
       </c>
@@ -3506,7 +3256,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H55" s="39"/>
+      <c r="H55" s="17"/>
       <c r="J55" s="8">
         <v>1</v>
       </c>
@@ -3518,7 +3268,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H56" s="39"/>
+      <c r="H56" s="17"/>
       <c r="J56" s="8">
         <v>1</v>
       </c>
@@ -3530,13 +3280,13 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
-        <v>24</v>
+      <c r="A57" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="17"/>
       <c r="J57" s="8">
         <v>5</v>
       </c>
@@ -3549,18 +3299,18 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="H58" s="17"/>
       <c r="J58" s="8">
         <v>1</v>
       </c>
@@ -3576,15 +3326,15 @@
         <v>1</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H59" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="H59" s="13"/>
       <c r="J59" s="8">
         <v>6</v>
       </c>
@@ -3601,10 +3351,10 @@
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="J60" s="8">
         <v>3</v>
@@ -3621,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="J61" s="8">
         <v>2</v>
@@ -3644,13 +3394,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="J62" s="8">
         <v>1</v>
@@ -3667,13 +3417,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="J63" s="8">
         <v>1</v>
@@ -3691,10 +3441,10 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="J64" s="8">
         <v>1</v>
@@ -3710,14 +3460,14 @@
       <c r="A65" s="8">
         <v>7</v>
       </c>
-      <c r="B65" s="44" t="s">
-        <v>171</v>
+      <c r="B65" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="J65" s="8">
         <v>1</v>
@@ -3730,8 +3480,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="31"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
       <c r="J66" s="8">
         <v>2</v>
       </c>
@@ -3743,8 +3493,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="31"/>
-      <c r="C67" s="39"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
       <c r="J67" s="8">
         <v>1</v>
       </c>
@@ -3756,8 +3506,8 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="31"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
       <c r="J68" s="8">
         <v>9</v>
       </c>
@@ -3769,8 +3519,8 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
-        <v>35</v>
+      <c r="A69" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3789,22 +3539,22 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="F70" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J70" s="8">
         <v>1</v>
@@ -3820,19 +3570,19 @@
       <c r="A71" s="8">
         <v>1</v>
       </c>
-      <c r="B71" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="59">
+      <c r="B71" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="32">
         <v>99084</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" s="60">
+        <v>150</v>
+      </c>
+      <c r="F71" s="33">
         <v>12</v>
       </c>
       <c r="J71" s="8">
@@ -3849,19 +3599,19 @@
       <c r="A72" s="8">
         <v>2</v>
       </c>
-      <c r="B72" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="59">
+      <c r="B72" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="32">
         <v>44137</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F72" s="60">
+        <v>156</v>
+      </c>
+      <c r="F72" s="33">
         <v>128</v>
       </c>
       <c r="J72" s="8">
@@ -3878,20 +3628,20 @@
       <c r="A73" s="8">
         <v>3</v>
       </c>
-      <c r="B73" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="59">
+      <c r="B73" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="32">
         <v>10115</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F73" s="60" t="s">
-        <v>189</v>
+        <v>147</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="J73" s="8">
         <v>1</v>
@@ -3903,23 +3653,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>4</v>
       </c>
-      <c r="B74" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="59">
+      <c r="B74" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="32">
         <v>20144</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F74" s="60">
+        <v>154</v>
+      </c>
+      <c r="F74" s="33">
         <v>14</v>
       </c>
       <c r="J74" s="8">
@@ -3936,20 +3686,20 @@
       <c r="A75" s="8">
         <v>5</v>
       </c>
-      <c r="B75" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="59">
+      <c r="B75" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="32">
         <v>99086</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F75" s="60" t="s">
-        <v>199</v>
+        <v>157</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="J75" s="8">
         <v>1</v>
@@ -3965,19 +3715,19 @@
       <c r="A76" s="8">
         <v>6</v>
       </c>
-      <c r="B76" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="59">
+      <c r="B76" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="32">
         <v>1067</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="60">
+        <v>152</v>
+      </c>
+      <c r="F76" s="33">
         <v>56</v>
       </c>
       <c r="J76" s="8">
@@ -3994,19 +3744,19 @@
       <c r="A77" s="8">
         <v>7</v>
       </c>
-      <c r="B77" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="59">
+      <c r="B77" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="32">
         <v>99086</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F77" s="60">
+        <v>159</v>
+      </c>
+      <c r="F77" s="33">
         <v>13</v>
       </c>
       <c r="J77" s="8">
@@ -4023,19 +3773,19 @@
       <c r="A78" s="9">
         <v>8</v>
       </c>
-      <c r="B78" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="45">
+      <c r="B78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="21">
         <v>80333</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" s="62">
+        <v>161</v>
+      </c>
+      <c r="F78" s="35">
         <v>48</v>
       </c>
       <c r="J78" s="8">
@@ -4049,8 +3799,8 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
       <c r="J79" s="8">
         <v>5</v>
       </c>
@@ -4062,8 +3812,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
       <c r="J80" s="8">
         <v>2</v>
       </c>
@@ -4075,54 +3825,54 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
-        <v>49</v>
+      <c r="A83" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="18"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="57"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="13"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="30"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="C84" s="37"/>
       <c r="D84" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L84" s="56"/>
-      <c r="M84" s="57"/>
+        <v>48</v>
+      </c>
+      <c r="L84" s="29"/>
+      <c r="M84" s="30"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
@@ -4131,326 +3881,326 @@
       <c r="B85" s="8">
         <v>7</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="8">
         <v>1</v>
       </c>
       <c r="E85" s="8">
         <v>1</v>
       </c>
-      <c r="F85" s="50">
+      <c r="F85" s="26">
         <v>0</v>
       </c>
       <c r="G85" s="8">
         <v>50</v>
       </c>
-      <c r="I85" s="50">
+      <c r="I85" s="26">
         <v>235</v>
       </c>
-      <c r="L85" s="56"/>
-      <c r="M85" s="57"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="30"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="64"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="65"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="8">
         <v>1</v>
       </c>
       <c r="E86" s="8">
         <v>9</v>
       </c>
-      <c r="F86" s="50">
+      <c r="F86" s="26">
         <v>0</v>
       </c>
       <c r="G86" s="8">
         <v>30</v>
       </c>
-      <c r="I86" s="49">
+      <c r="I86" s="25">
         <v>56</v>
       </c>
-      <c r="L86" s="56"/>
-      <c r="M86" s="57"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="30"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="65"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="8">
         <v>1</v>
       </c>
       <c r="E87" s="8">
         <v>15</v>
       </c>
-      <c r="F87" s="50">
+      <c r="F87" s="26">
         <v>0</v>
       </c>
       <c r="G87" s="8">
         <v>10</v>
       </c>
-      <c r="I87" s="49">
+      <c r="I87" s="25">
         <v>13</v>
       </c>
-      <c r="L87" s="56"/>
-      <c r="M87" s="57"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="30"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="8">
         <v>1</v>
       </c>
       <c r="E88" s="8">
         <v>10</v>
       </c>
-      <c r="F88" s="50">
+      <c r="F88" s="26">
         <v>0</v>
       </c>
       <c r="G88" s="8">
         <v>30</v>
       </c>
-      <c r="I88" s="49">
+      <c r="I88" s="25">
         <v>64</v>
       </c>
-      <c r="L88" s="56"/>
-      <c r="M88" s="57"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="30"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="8">
         <v>1</v>
       </c>
       <c r="E89" s="8">
         <v>12</v>
       </c>
-      <c r="F89" s="50">
+      <c r="F89" s="26">
         <v>0</v>
       </c>
       <c r="G89" s="8">
         <v>10</v>
       </c>
-      <c r="I89" s="49">
+      <c r="I89" s="25">
         <v>10</v>
       </c>
-      <c r="L89" s="56"/>
-      <c r="M89" s="57"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="30"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="64"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="65"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="8">
         <v>1</v>
       </c>
       <c r="E90" s="8">
         <v>2</v>
       </c>
-      <c r="F90" s="50">
+      <c r="F90" s="26">
         <v>0</v>
       </c>
       <c r="G90" s="8">
         <v>50</v>
       </c>
-      <c r="I90" s="49">
+      <c r="I90" s="25">
         <v>163</v>
       </c>
-      <c r="L90" s="56"/>
-      <c r="M90" s="57"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="30"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="65"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="8">
         <v>1</v>
       </c>
       <c r="E91" s="8">
         <v>8</v>
       </c>
-      <c r="F91" s="50">
+      <c r="F91" s="26">
         <v>0</v>
       </c>
       <c r="G91" s="8">
         <v>30</v>
       </c>
-      <c r="I91" s="49">
+      <c r="I91" s="25">
         <v>47</v>
       </c>
-      <c r="L91" s="56"/>
-      <c r="M91" s="57"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="64"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="65"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="8">
         <v>1</v>
       </c>
       <c r="E92" s="8">
         <v>14</v>
       </c>
-      <c r="F92" s="50">
+      <c r="F92" s="26">
         <v>0</v>
       </c>
       <c r="G92" s="8">
         <v>10</v>
       </c>
-      <c r="I92" s="49">
+      <c r="I92" s="25">
         <v>15</v>
       </c>
-      <c r="L92" s="56"/>
-      <c r="M92" s="57"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="65"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="8">
         <v>1</v>
       </c>
       <c r="E93" s="8">
         <v>6</v>
       </c>
-      <c r="F93" s="50">
+      <c r="F93" s="26">
         <v>0</v>
       </c>
       <c r="G93" s="8">
         <v>30</v>
       </c>
-      <c r="I93" s="49">
+      <c r="I93" s="25">
         <v>58</v>
       </c>
-      <c r="L93" s="58"/>
-      <c r="M93" s="57"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="30"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="64"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="8">
         <v>1</v>
       </c>
       <c r="E94" s="8">
         <v>7</v>
       </c>
-      <c r="F94" s="50">
+      <c r="F94" s="26">
         <v>0</v>
       </c>
       <c r="G94" s="8">
         <v>15</v>
       </c>
-      <c r="I94" s="49">
+      <c r="I94" s="25">
         <v>23</v>
       </c>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="65"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="8">
         <v>1</v>
       </c>
       <c r="E95" s="8">
         <v>5</v>
       </c>
-      <c r="F95" s="50">
+      <c r="F95" s="26">
         <v>0</v>
       </c>
       <c r="G95" s="8">
         <v>50</v>
       </c>
-      <c r="I95" s="49">
+      <c r="I95" s="25">
         <v>110</v>
       </c>
-      <c r="L95" s="57"/>
-      <c r="M95" s="57"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="64"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="8">
         <v>1</v>
       </c>
       <c r="E96" s="8">
         <v>13</v>
       </c>
-      <c r="F96" s="50">
+      <c r="F96" s="26">
         <v>0</v>
       </c>
       <c r="G96" s="8">
         <v>10</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="25">
         <v>0</v>
       </c>
-      <c r="L96" s="57"/>
-      <c r="M96" s="57"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="65"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="8">
         <v>1</v>
       </c>
       <c r="E97" s="8">
         <v>4</v>
       </c>
-      <c r="F97" s="50">
+      <c r="F97" s="26">
         <v>0</v>
       </c>
       <c r="G97" s="8">
         <v>30</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="25">
         <v>45</v>
       </c>
-      <c r="L97" s="57"/>
-      <c r="M97" s="57"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="30"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="64"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="65"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="8">
         <v>1</v>
       </c>
       <c r="E98" s="8">
         <v>3</v>
       </c>
-      <c r="F98" s="50">
+      <c r="F98" s="26">
         <v>0</v>
       </c>
       <c r="G98" s="8">
         <v>30</v>
       </c>
-      <c r="I98" s="49">
+      <c r="I98" s="25">
         <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="65"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="8">
         <v>1</v>
       </c>
       <c r="E99" s="8">
         <v>11</v>
       </c>
-      <c r="F99" s="50">
+      <c r="F99" s="26">
         <v>0</v>
       </c>
       <c r="G99" s="8">
         <v>10</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I99" s="25">
         <v>13</v>
       </c>
     </row>
@@ -4466,1415 +4216,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5546875" style="6"/>
-    <col min="8" max="8" width="18.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="6"/>
-    <col min="10" max="10" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="33">
-        <v>20</v>
-      </c>
-      <c r="D5" s="32">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="41">
-        <v>1</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="33">
-        <v>10</v>
-      </c>
-      <c r="D6" s="32">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="41">
-        <v>2</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="33">
-        <v>40</v>
-      </c>
-      <c r="D7" s="32">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="41">
-        <v>3</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>4</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="33">
-        <v>30</v>
-      </c>
-      <c r="D8" s="32">
-        <v>6</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="41">
-        <v>4</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="33">
-        <v>80</v>
-      </c>
-      <c r="D9" s="32">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="41">
-        <v>5</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="33">
-        <v>20</v>
-      </c>
-      <c r="D10" s="32">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="41">
-        <v>6</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>7</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="33">
-        <v>60</v>
-      </c>
-      <c r="D11" s="31">
-        <v>6</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="40">
-        <v>7</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>8</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="33">
-        <v>5</v>
-      </c>
-      <c r="D12" s="31">
-        <v>7</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
-        <v>9</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="33">
-        <v>5</v>
-      </c>
-      <c r="D13" s="31">
-        <v>3</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="33">
-        <v>15</v>
-      </c>
-      <c r="D14" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="33">
-        <v>25</v>
-      </c>
-      <c r="D15" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="40">
-        <v>10</v>
-      </c>
-      <c r="D16" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="40">
-        <v>20</v>
-      </c>
-      <c r="D17" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="40">
-        <v>25</v>
-      </c>
-      <c r="D18" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="40">
-        <v>5</v>
-      </c>
-      <c r="D19" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
-        <v>1</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>2</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>3</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
-        <v>4</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="53"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="I11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEBDE3E-0CFA-453F-AF54-3BD88A1C79A9}">
-  <dimension ref="A2:M64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="F2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="J5" s="8">
-        <v>2</v>
-      </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="J6" s="8">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="F7" s="8">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="J7" s="8">
-        <v>4</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="F8" s="8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="F9" s="8">
-        <v>6</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="F10" s="8">
-        <v>7</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="F11" s="8">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="F12" s="8">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="F13" s="8">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="D21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="I21" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>1</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="8">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>4</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="8">
-        <v>4</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>5</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="8">
-        <v>5</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>6</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>7</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>8</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>9</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>10</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="H38" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>1</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="H40" s="8">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="H41" s="8">
-        <v>2</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>3</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="H42" s="8">
-        <v>3</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>4</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="H43" s="8">
-        <v>4</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>5</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="H44" s="8">
-        <v>5</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>6</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="H45" s="8">
-        <v>6</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="H46" s="8">
-        <v>7</v>
-      </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H47" s="8">
-        <v>8</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H48" s="8">
-        <v>9</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="F52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-      <c r="F55" s="8">
-        <v>2</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8">
-        <v>3</v>
-      </c>
-      <c r="F56" s="8">
-        <v>3</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8">
-        <v>4</v>
-      </c>
-      <c r="F57" s="8">
-        <v>4</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8">
-        <v>5</v>
-      </c>
-      <c r="F58" s="8">
-        <v>5</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8">
-        <v>6</v>
-      </c>
-      <c r="F59" s="8">
-        <v>6</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8">
-        <v>7</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Relationales Modell.xlsx
+++ b/Relationales Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Studium\Softwareprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58409415-C311-4F22-BCCA-890FF82CAB0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4C200-9B35-4A2B-9161-B5D013EBC72E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="183">
   <si>
     <t>int</t>
   </si>
@@ -713,25 +713,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -766,6 +756,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -1086,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,800 +1094,990 @@
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" t="s">
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F36" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="C49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B73" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="C73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1</v>
-      </c>
+      <c r="C75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1916,2291 +2101,2291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="11" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="12">
         <v>9</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="26">
-        <v>1</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
         <v>135</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="18">
         <v>12</v>
       </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="27">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19">
         <v>43153</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>6</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="18">
         <v>6</v>
       </c>
-      <c r="F4" s="25">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
         <v>56</v>
       </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8">
-        <v>2</v>
-      </c>
-      <c r="L4" s="27">
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="19">
         <v>43190</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="20">
-        <v>2</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
         <v>7</v>
       </c>
-      <c r="F5" s="25">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="17">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17">
         <v>13</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="17">
         <v>6</v>
       </c>
-      <c r="I5" s="25">
-        <v>2</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8">
+      <c r="I5" s="17">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4">
         <v>3</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="19">
         <v>43202</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="18">
         <v>6</v>
       </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
         <v>64</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="17">
         <v>9</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="17">
         <v>3</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8">
+      <c r="J6" s="2"/>
+      <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="19">
         <v>43224</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <v>8</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>7</v>
       </c>
-      <c r="F7" s="25">
-        <v>2</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="F7" s="17">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17">
         <v>10</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="17">
         <v>7</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="17">
         <v>3</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8">
+      <c r="J7" s="2"/>
+      <c r="K7" s="4">
         <v>5</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="19">
         <v>43235</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="13">
         <v>15</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
         <v>163</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="17">
         <v>3</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="17">
         <v>4</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="9">
+      <c r="J8" s="2"/>
+      <c r="K8" s="5">
         <v>6</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="19">
         <v>43235</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="13">
         <v>12</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="25">
-        <v>2</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17">
         <v>47</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="17">
         <v>5</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="17">
         <v>4</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="9">
+      <c r="J9" s="2"/>
+      <c r="K9" s="5">
         <v>7</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="19">
         <v>43251</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="13">
         <v>14</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="17">
         <v>3</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="17">
         <v>15</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="17">
         <v>8</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="17">
         <v>4</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="9">
+      <c r="J10" s="2"/>
+      <c r="K10" s="5">
         <v>8</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="19">
         <v>43253</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="12">
         <v>4</v>
       </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
         <v>58</v>
       </c>
-      <c r="H11" s="25">
-        <v>2</v>
-      </c>
-      <c r="I11" s="25">
+      <c r="H11" s="17">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17">
         <v>5</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="9">
+      <c r="J11" s="2"/>
+      <c r="K11" s="5">
         <v>9</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="19">
         <v>43254</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="12">
         <v>7</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="12">
         <v>6</v>
       </c>
-      <c r="F12" s="25">
-        <v>2</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="F12" s="17">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17">
         <v>23</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="17">
         <v>10</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="17">
         <v>5</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="12">
         <v>4</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="18">
         <v>6</v>
       </c>
-      <c r="F13" s="26">
-        <v>1</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
         <v>100</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="18">
         <v>12</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="17">
         <v>6</v>
       </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
-        <v>1</v>
-      </c>
-      <c r="G14" s="25">
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
         <v>110</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="17">
         <v>14</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="17">
         <v>7</v>
       </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="13">
         <v>11</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="12">
         <v>6</v>
       </c>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
         <v>45</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="17">
         <v>11</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="17">
         <v>9</v>
       </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="12">
         <v>5</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="25">
-        <v>2</v>
-      </c>
-      <c r="G16" s="25">
+      <c r="F16" s="17">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17">
         <v>50</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="17">
         <v>4</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="17">
         <v>9</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="13">
         <v>13</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="12">
         <v>7</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="17">
         <v>13</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="17">
         <v>13</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="17">
         <v>9</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="21">
-        <v>2</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="21">
-        <v>2</v>
-      </c>
-      <c r="D19" s="21">
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
         <v>6</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="13">
         <v>13</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="13">
         <v>7</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="13">
         <v>15</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="13">
         <v>7</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="4">
         <v>6</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="13">
         <v>12</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="4">
         <v>15</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="13">
         <v>7</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="11" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="J26" s="11" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="J26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="8" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
-        <v>1</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="8">
+      <c r="I28" s="9"/>
+      <c r="J28" s="4">
         <v>4</v>
       </c>
-      <c r="K28" s="8">
-        <v>1</v>
-      </c>
-      <c r="L28" s="8">
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
-        <v>2</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="8">
-        <v>2</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="8">
-        <v>1</v>
-      </c>
-      <c r="K29" s="8">
+      <c r="I29" s="11"/>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
         <v>3</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="A30" s="12">
         <v>3</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="4">
         <v>3</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="8">
-        <v>1</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="I30" s="11"/>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
         <v>5</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="8">
-        <v>1</v>
-      </c>
-      <c r="K31" s="8">
+      <c r="I31" s="9"/>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
         <v>4</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="A32" s="12">
         <v>5</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="8">
-        <v>2</v>
-      </c>
-      <c r="K32" s="8">
-        <v>2</v>
-      </c>
-      <c r="L32" s="8">
+      <c r="I32" s="9"/>
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
+      <c r="L32" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="A33" s="12">
         <v>6</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="8">
-        <v>1</v>
-      </c>
-      <c r="K33" s="8">
+      <c r="I33" s="11"/>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
         <v>6</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="A34" s="12">
         <v>7</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="8">
+      <c r="I34" s="11"/>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
         <v>7</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="20">
+      <c r="A35" s="12">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="8">
-        <v>2</v>
-      </c>
-      <c r="K35" s="8">
+      <c r="I35" s="9"/>
+      <c r="J35" s="4">
+        <v>2</v>
+      </c>
+      <c r="K35" s="4">
         <v>8</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="20">
+      <c r="A36" s="12">
         <v>9</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-      <c r="K36" s="8">
+      <c r="I36" s="11"/>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
         <v>10</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
+      <c r="A37" s="12">
         <v>10</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="8">
+      <c r="I37" s="11"/>
+      <c r="J37" s="4">
         <v>8</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="4">
         <v>9</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="A38" s="14">
         <v>11</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="8">
-        <v>1</v>
-      </c>
-      <c r="K38" s="8">
+      <c r="I38" s="9"/>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
         <v>12</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="A39" s="13">
         <v>12</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="8">
+      <c r="D39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="4">
         <v>4</v>
       </c>
-      <c r="K39" s="8">
-        <v>1</v>
-      </c>
-      <c r="L39" s="8">
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="13">
         <v>13</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="8">
-        <v>1</v>
-      </c>
-      <c r="K40" s="8">
+      <c r="D40" s="8"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
         <v>3</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="A41" s="13">
         <v>14</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="8">
+      <c r="D41" s="8"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
         <v>5</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="A42" s="13">
         <v>15</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
-      <c r="K42" s="8">
+      <c r="D42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
         <v>4</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I43" s="17"/>
-      <c r="J43" s="8">
-        <v>1</v>
-      </c>
-      <c r="K43" s="8">
-        <v>2</v>
-      </c>
-      <c r="L43" s="8">
+      <c r="I43" s="9"/>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I44" s="17"/>
-      <c r="J44" s="8">
-        <v>1</v>
-      </c>
-      <c r="K44" s="8">
+      <c r="I44" s="9"/>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
         <v>6</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I45" s="17"/>
-      <c r="J45" s="8">
-        <v>1</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="I45" s="9"/>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
         <v>7</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="J46" s="8">
-        <v>1</v>
-      </c>
-      <c r="K46" s="8">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
         <v>8</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="J47" s="8">
-        <v>1</v>
-      </c>
-      <c r="K47" s="8">
+      <c r="G47" s="9"/>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
         <v>10</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
-        <v>1</v>
-      </c>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="18">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="8">
-        <v>2</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
         <v>4</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="J48" s="8">
+      <c r="G48" s="11"/>
+      <c r="J48" s="4">
         <v>7</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="4">
         <v>9</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
-        <v>2</v>
-      </c>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="18">
+        <v>2</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="4">
         <v>4</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="4">
         <v>3</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-      <c r="K49" s="8">
+      <c r="G49" s="11"/>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
         <v>13</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="26">
+      <c r="A50" s="18">
         <v>3</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="4">
         <v>3</v>
       </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="J50" s="8">
+      <c r="G50" s="9"/>
+      <c r="J50" s="4">
         <v>3</v>
       </c>
-      <c r="K50" s="8">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8">
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+      <c r="L50" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
+      <c r="A51" s="18">
         <v>4</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
         <v>5</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="J51" s="8">
-        <v>1</v>
-      </c>
-      <c r="K51" s="8">
+      <c r="G51" s="9"/>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
         <v>3</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="26">
+      <c r="A52" s="18">
         <v>5</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="4">
         <v>8</v>
       </c>
-      <c r="D52" s="8">
-        <v>2</v>
-      </c>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="J52" s="8">
-        <v>1</v>
-      </c>
-      <c r="K52" s="8">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
         <v>5</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
+      <c r="A53" s="18">
         <v>6</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="4">
         <v>5</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="4">
         <v>6</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="19"/>
-      <c r="J53" s="8">
-        <v>1</v>
-      </c>
-      <c r="K53" s="8">
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
         <v>4</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="A54" s="13">
         <v>7</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="4">
         <v>6</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="4">
         <v>7</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="19"/>
-      <c r="J54" s="8">
-        <v>1</v>
-      </c>
-      <c r="K54" s="8">
+      <c r="G54" s="7"/>
+      <c r="H54" s="11"/>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
         <v>6</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H55" s="17"/>
-      <c r="J55" s="8">
-        <v>1</v>
-      </c>
-      <c r="K55" s="8">
+      <c r="H55" s="9"/>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
         <v>7</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H56" s="17"/>
-      <c r="J56" s="8">
-        <v>1</v>
-      </c>
-      <c r="K56" s="8">
+      <c r="H56" s="9"/>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
         <v>10</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="H57" s="17"/>
-      <c r="J57" s="8">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="J57" s="4">
         <v>5</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="4">
         <v>9</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="J58" s="8">
-        <v>1</v>
-      </c>
-      <c r="K58" s="8">
+      <c r="H58" s="9"/>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
         <v>14</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
-        <v>1</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="J59" s="8">
+      <c r="H59" s="7"/>
+      <c r="J59" s="4">
         <v>6</v>
       </c>
-      <c r="K59" s="8">
-        <v>1</v>
-      </c>
-      <c r="L59" s="8">
+      <c r="K59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>2</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="4">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="4">
         <v>3</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="4">
         <v>3</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61" s="4">
         <v>3</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J61" s="8">
-        <v>2</v>
-      </c>
-      <c r="K61" s="8">
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="4">
         <v>5</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62" s="4">
         <v>4</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J62" s="8">
-        <v>1</v>
-      </c>
-      <c r="K62" s="8">
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
         <v>4</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L62" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63" s="4">
         <v>5</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J63" s="8">
-        <v>1</v>
-      </c>
-      <c r="K63" s="8">
-        <v>2</v>
-      </c>
-      <c r="L63" s="8">
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>2</v>
+      </c>
+      <c r="L63" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64" s="4">
         <v>6</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J64" s="8">
-        <v>1</v>
-      </c>
-      <c r="K64" s="8">
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
         <v>6</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="A65" s="4">
         <v>7</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J65" s="8">
-        <v>1</v>
-      </c>
-      <c r="K65" s="8">
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
         <v>7</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="J66" s="8">
-        <v>2</v>
-      </c>
-      <c r="K66" s="8">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="J66" s="4">
+        <v>2</v>
+      </c>
+      <c r="K66" s="4">
         <v>8</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="J67" s="8">
-        <v>1</v>
-      </c>
-      <c r="K67" s="8">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
         <v>10</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L67" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="J68" s="8">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="J68" s="4">
         <v>9</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="4">
         <v>9</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="J69" s="8">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
         <v>11</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L69" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J70" s="8">
-        <v>1</v>
-      </c>
-      <c r="K70" s="8">
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
         <v>15</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
-        <v>1</v>
-      </c>
-      <c r="B71" s="20" t="s">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="24">
         <v>99084</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="25">
         <v>12</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="4">
         <v>4</v>
       </c>
-      <c r="K71" s="8">
-        <v>1</v>
-      </c>
-      <c r="L71" s="8">
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="L71" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>2</v>
-      </c>
-      <c r="B72" s="20" t="s">
+      <c r="A72" s="4">
+        <v>2</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="24">
         <v>44137</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F72" s="25">
         <v>128</v>
       </c>
-      <c r="J72" s="8">
-        <v>2</v>
-      </c>
-      <c r="K72" s="8">
+      <c r="J72" s="4">
+        <v>2</v>
+      </c>
+      <c r="K72" s="4">
         <v>3</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L72" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+      <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="24">
         <v>10115</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J73" s="8">
-        <v>1</v>
-      </c>
-      <c r="K73" s="8">
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
         <v>5</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+    <row r="74" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>4</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="24">
         <v>20144</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F74" s="25">
         <v>14</v>
       </c>
-      <c r="J74" s="8">
-        <v>2</v>
-      </c>
-      <c r="K74" s="8">
+      <c r="J74" s="4">
+        <v>2</v>
+      </c>
+      <c r="K74" s="4">
         <v>4</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="A75" s="4">
         <v>5</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="24">
         <v>99086</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J75" s="8">
-        <v>1</v>
-      </c>
-      <c r="K75" s="8">
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
         <v>6</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+      <c r="A76" s="4">
         <v>6</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="24">
         <v>1067</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="33">
+      <c r="F76" s="25">
         <v>56</v>
       </c>
-      <c r="J76" s="8">
-        <v>1</v>
-      </c>
-      <c r="K76" s="8">
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
         <v>7</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="A77" s="4">
         <v>7</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="24">
         <v>99086</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="25">
         <v>13</v>
       </c>
-      <c r="J77" s="8">
-        <v>2</v>
-      </c>
-      <c r="K77" s="8">
+      <c r="J77" s="4">
+        <v>2</v>
+      </c>
+      <c r="K77" s="4">
         <v>8</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="9">
+      <c r="A78" s="5">
         <v>8</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="13">
         <v>80333</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="27">
         <v>48</v>
       </c>
-      <c r="J78" s="8">
-        <v>1</v>
-      </c>
-      <c r="K78" s="8">
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
         <v>10</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="J79" s="8">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="J79" s="4">
         <v>5</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="4">
         <v>9</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="J80" s="8">
-        <v>2</v>
-      </c>
-      <c r="K80" s="8">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="J80" s="4">
+        <v>2</v>
+      </c>
+      <c r="K80" s="4">
         <v>11</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="36" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="13"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="30"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="7"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="22"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L84" s="29"/>
-      <c r="M84" s="30"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="22"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
-        <v>1</v>
-      </c>
-      <c r="B85" s="8">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+      <c r="B85" s="4">
         <v>7</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="8">
-        <v>1</v>
-      </c>
-      <c r="E85" s="8">
-        <v>1</v>
-      </c>
-      <c r="F85" s="26">
+      <c r="C85" s="20"/>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="18">
         <v>0</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="4">
         <v>50</v>
       </c>
-      <c r="I85" s="26">
+      <c r="I85" s="18">
         <v>235</v>
       </c>
-      <c r="L85" s="29"/>
-      <c r="M85" s="30"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="22"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="8">
-        <v>1</v>
-      </c>
-      <c r="E86" s="8">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
         <v>9</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="18">
         <v>0</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="4">
         <v>30</v>
       </c>
-      <c r="I86" s="25">
+      <c r="I86" s="17">
         <v>56</v>
       </c>
-      <c r="L86" s="29"/>
-      <c r="M86" s="30"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="22"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="8">
-        <v>1</v>
-      </c>
-      <c r="E87" s="8">
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
         <v>15</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="18">
         <v>0</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="4">
         <v>10</v>
       </c>
-      <c r="I87" s="25">
+      <c r="I87" s="17">
         <v>13</v>
       </c>
-      <c r="L87" s="29"/>
-      <c r="M87" s="30"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="22"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="8">
-        <v>1</v>
-      </c>
-      <c r="E88" s="8">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
         <v>10</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F88" s="18">
         <v>0</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="4">
         <v>30</v>
       </c>
-      <c r="I88" s="25">
+      <c r="I88" s="17">
         <v>64</v>
       </c>
-      <c r="L88" s="29"/>
-      <c r="M88" s="30"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="22"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="8">
-        <v>1</v>
-      </c>
-      <c r="E89" s="8">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
         <v>12</v>
       </c>
-      <c r="F89" s="26">
+      <c r="F89" s="18">
         <v>0</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="4">
         <v>10</v>
       </c>
-      <c r="I89" s="25">
+      <c r="I89" s="17">
         <v>10</v>
       </c>
-      <c r="L89" s="29"/>
-      <c r="M89" s="30"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="22"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="8">
-        <v>1</v>
-      </c>
-      <c r="E90" s="8">
-        <v>2</v>
-      </c>
-      <c r="F90" s="26">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2</v>
+      </c>
+      <c r="F90" s="18">
         <v>0</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="4">
         <v>50</v>
       </c>
-      <c r="I90" s="25">
+      <c r="I90" s="17">
         <v>163</v>
       </c>
-      <c r="L90" s="29"/>
-      <c r="M90" s="30"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="22"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="8">
-        <v>1</v>
-      </c>
-      <c r="E91" s="8">
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
         <v>8</v>
       </c>
-      <c r="F91" s="26">
+      <c r="F91" s="18">
         <v>0</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="4">
         <v>30</v>
       </c>
-      <c r="I91" s="25">
+      <c r="I91" s="17">
         <v>47</v>
       </c>
-      <c r="L91" s="29"/>
-      <c r="M91" s="30"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="22"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="8">
-        <v>1</v>
-      </c>
-      <c r="E92" s="8">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
         <v>14</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="18">
         <v>0</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="4">
         <v>10</v>
       </c>
-      <c r="I92" s="25">
+      <c r="I92" s="17">
         <v>15</v>
       </c>
-      <c r="L92" s="29"/>
-      <c r="M92" s="30"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="22"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="8">
-        <v>1</v>
-      </c>
-      <c r="E93" s="8">
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
         <v>6</v>
       </c>
-      <c r="F93" s="26">
+      <c r="F93" s="18">
         <v>0</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="4">
         <v>30</v>
       </c>
-      <c r="I93" s="25">
+      <c r="I93" s="17">
         <v>58</v>
       </c>
-      <c r="L93" s="31"/>
-      <c r="M93" s="30"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="22"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="8">
-        <v>1</v>
-      </c>
-      <c r="E94" s="8">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
         <v>7</v>
       </c>
-      <c r="F94" s="26">
+      <c r="F94" s="18">
         <v>0</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="4">
         <v>15</v>
       </c>
-      <c r="I94" s="25">
+      <c r="I94" s="17">
         <v>23</v>
       </c>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
-      <c r="E95" s="8">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
         <v>5</v>
       </c>
-      <c r="F95" s="26">
+      <c r="F95" s="18">
         <v>0</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="4">
         <v>50</v>
       </c>
-      <c r="I95" s="25">
+      <c r="I95" s="17">
         <v>110</v>
       </c>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="8">
-        <v>1</v>
-      </c>
-      <c r="E96" s="8">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
         <v>13</v>
       </c>
-      <c r="F96" s="26">
+      <c r="F96" s="18">
         <v>0</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="4">
         <v>10</v>
       </c>
-      <c r="I96" s="25">
+      <c r="I96" s="17">
         <v>0</v>
       </c>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="8">
-        <v>1</v>
-      </c>
-      <c r="E97" s="8">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
         <v>4</v>
       </c>
-      <c r="F97" s="26">
+      <c r="F97" s="18">
         <v>0</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="4">
         <v>30</v>
       </c>
-      <c r="I97" s="25">
+      <c r="I97" s="17">
         <v>45</v>
       </c>
-      <c r="L97" s="30"/>
-      <c r="M97" s="30"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="8">
-        <v>1</v>
-      </c>
-      <c r="E98" s="8">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
         <v>3</v>
       </c>
-      <c r="F98" s="26">
+      <c r="F98" s="18">
         <v>0</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="4">
         <v>30</v>
       </c>
-      <c r="I98" s="25">
+      <c r="I98" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="8">
-        <v>1</v>
-      </c>
-      <c r="E99" s="8">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
         <v>11</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F99" s="18">
         <v>0</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="4">
         <v>10</v>
       </c>
-      <c r="I99" s="25">
+      <c r="I99" s="17">
         <v>13</v>
       </c>
     </row>
